--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -86,15 +86,21 @@
     <t xml:space="preserve">BE</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBJECT-AREA</t>
+    <t xml:space="preserve">SUBJECT-AREA_en</t>
   </si>
   <si>
     <t xml:space="preserve">Population</t>
   </si>
   <si>
+    <t xml:space="preserve">SUBJECT-AREA_da</t>
+  </si>
+  <si>
     <t xml:space="preserve">Befolkning</t>
   </si>
   <si>
+    <t xml:space="preserve">SUBJECT-AREA_kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Innuttaasut</t>
   </si>
   <si>
@@ -104,46 +110,124 @@
     <t xml:space="preserve">YES</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCRIPTION</t>
+    <t xml:space="preserve">DESCRIPTION_en</t>
   </si>
   <si>
     <t xml:space="preserve">TESTPopulation January 1st 2018-2022</t>
   </si>
   <si>
+    <t xml:space="preserve">DESCRIPTION_da</t>
+  </si>
+  <si>
     <t xml:space="preserve">TESTBefolkningen pr 1. januar 2018 - 2022</t>
   </si>
   <si>
+    <t xml:space="preserve">DESCRIPTION_kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Januaarimi TEST innuttaasut 2018-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTENTS</t>
+    <t xml:space="preserve">CONTENTS_en</t>
   </si>
   <si>
     <t xml:space="preserve">Population January 1st</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTENTS_da</t>
+  </si>
+  <si>
     <t xml:space="preserve">Befolkningen 1. januar</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTENTS_kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Januaarimi innuttaasut</t>
   </si>
   <si>
-    <t xml:space="preserve">UNITS</t>
+    <t xml:space="preserve">UNITS_en</t>
   </si>
   <si>
     <t xml:space="preserve">persons</t>
   </si>
   <si>
+    <t xml:space="preserve">UNITS_da</t>
+  </si>
+  <si>
     <t xml:space="preserve">personer</t>
   </si>
   <si>
+    <t xml:space="preserve">UNITS_kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">inuit amerlassusaat</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTEX</t>
+    <t xml:space="preserve">LAST-UPDATED_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210211 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTACT_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars Pedersen"," LARP@stat.gl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTACT_da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTACT_kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grønlands Statistik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naatsorsueqqissaartarfik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gl/bee202201/m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK_da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gl/bed202201/m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK_kl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gl/ben202201/m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTEX_en</t>
   </si>
   <si>
     <t xml:space="preserve">Tvungen fodnote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTEX_da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTEX_kl</t>
   </si>
   <si>
     <t xml:space="preserve">position</t>
@@ -908,122 +992,202 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1042,114 +1206,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1163,32 +1327,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1200,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1231,163 +1395,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1406,13 +1570,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1420,632 +1584,632 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">LANGUAGES</t>
   </si>
   <si>
-    <t xml:space="preserve">en","da","kl</t>
+    <t xml:space="preserve">en,da,kl</t>
   </si>
   <si>
     <t xml:space="preserve">CREATION-DATE</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">CONTACT_en</t>
   </si>
   <si>
-    <t xml:space="preserve">Lars Pedersen"," LARP@stat.gl</t>
+    <t xml:space="preserve">Lars Pedersen, LARP@stat.gl</t>
   </si>
   <si>
     <t xml:space="preserve">CONTACT_da</t>
@@ -230,6 +230,18 @@
     <t xml:space="preserve">NOTEX_kl</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTE_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE_da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE_kl</t>
+  </si>
+  <si>
     <t xml:space="preserve">position</t>
   </si>
   <si>
@@ -354,9 +366,6 @@
   </si>
   <si>
     <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -1190,6 +1199,30 @@
         <v>68</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1206,114 +1239,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1327,32 +1360,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1364,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1395,163 +1428,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1570,13 +1603,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1584,632 +1617,632 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">LANGUAGES</t>
   </si>
   <si>
-    <t xml:space="preserve">en,da,kl</t>
+    <t xml:space="preserve">en","da","kl</t>
   </si>
   <si>
     <t xml:space="preserve">CREATION-DATE</t>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>135</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>139</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>140</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>142</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>143</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
         <v>144</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>146</v>
@@ -1757,13 +1757,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>150</v>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>151</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>152</v>
@@ -1827,13 +1827,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>153</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>154</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>155</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>156</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
         <v>157</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>159</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>160</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>161</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>163</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
         <v>164</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
         <v>165</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>166</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>167</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>168</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>169</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>171</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>172</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>173</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>174</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
         <v>175</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
         <v>176</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
         <v>177</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
         <v>178</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
         <v>180</v>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>181</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
         <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
         <v>182</v>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -1468,9 +1468,7 @@
       <c r="F2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1491,9 +1489,7 @@
       <c r="F3" t="s">
         <v>120</v>
       </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1514,9 +1510,7 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1537,9 +1531,7 @@
       <c r="F5" t="s">
         <v>99</v>
       </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1560,9 +1552,7 @@
       <c r="F6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1583,9 +1573,7 @@
       <c r="F7" t="s">
         <v>132</v>
       </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">suiaassuseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.figures</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -1394,10 +1397,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1431,22 +1434,22 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -1454,7 +1457,7 @@
         <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1475,19 +1478,19 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1496,19 +1499,19 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1517,7 +1520,7 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1538,19 +1541,19 @@
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1559,19 +1562,19 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7"/>
     </row>
@@ -1600,637 +1603,637 @@
         <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -611,6 +611,70 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B41" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B41"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="keyword"/>
+    <tableColumn id="2" name="value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O5" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:O5"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="position"/>
+    <tableColumn id="2" name="variable"/>
+    <tableColumn id="3" name="type"/>
+    <tableColumn id="4" name="en_long_name"/>
+    <tableColumn id="5" name="da_long_name"/>
+    <tableColumn id="6" name="kl_long_name"/>
+    <tableColumn id="7" name="en_domain"/>
+    <tableColumn id="8" name="da_domain"/>
+    <tableColumn id="9" name="kl_domain"/>
+    <tableColumn id="10" name="en_elimination"/>
+    <tableColumn id="11" name="da_elimination"/>
+    <tableColumn id="12" name="kl_elimination"/>
+    <tableColumn id="13" name="en_note"/>
+    <tableColumn id="14" name="da_note"/>
+    <tableColumn id="15" name="kl_note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G7" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="variable"/>
+    <tableColumn id="2" name="code"/>
+    <tableColumn id="3" name="sortorder"/>
+    <tableColumn id="4" name="en_code_label"/>
+    <tableColumn id="5" name="da_code_label"/>
+    <tableColumn id="6" name="kl_code_label"/>
+    <tableColumn id="7" name="precision"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D46" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D46"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="place of birth"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="3" name="gender"/>
+    <tableColumn id="4" name=".figures"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,9 +958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="16.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="41.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1229,6 +1297,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1236,9 +1307,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="14.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="14.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="12.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="14.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="14.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="14.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="32.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="32.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="32.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1418,6 +1506,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1425,9 +1516,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="17.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="26.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1581,6 +1681,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1588,9 +1691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2239,5 +2348,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -417,156 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kalaallit Nunaata avataani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2181</t>
   </si>
 </sst>
 </file>
@@ -659,19 +508,6 @@
     <tableColumn id="5" name="da_code_label"/>
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D46" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D46"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="place of birth"/>
-    <tableColumn id="2" name="time"/>
-    <tableColumn id="3" name="gender"/>
-    <tableColumn id="4" name=".figures"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1685,671 +1521,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <cols>
-    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -343,7 +343,7 @@
     <t xml:space="preserve">suiaassuseq</t>
   </si>
   <si>
-    <t xml:space="preserve">.figures</t>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -232,12 +232,15 @@
     <t xml:space="preserve">NOTE_en</t>
   </si>
   <si>
+    <t xml:space="preserve">This is a very long note. It is longer than 256*2 characters to test what happens if a line is broken into 3 lines. Each line should only hold values up to 256 and then break line after a comma. When the line is so long that it is split into &gt;=3 lines, the second line starts with no keywords, but just list values. The last line will do the same but has to end with a semi-colon to show that the list of values has ended. With this final sentence, that had to be extended a bit, this line is now 534 characters which is long enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE_da</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">NOTE_da</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOTE_kl</t>
   </si>
   <si>
@@ -343,7 +346,7 @@
     <t xml:space="preserve">suiaassuseq</t>
   </si>
   <si>
-    <t xml:space="preserve">.figures</t>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -799,7 +802,7 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="16.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="41.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1119,15 +1122,15 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1166,114 +1169,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1287,32 +1290,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1321,10 +1324,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1367,150 +1370,150 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7"/>
     </row>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -232,10 +232,13 @@
     <t xml:space="preserve">NOTE_en</t>
   </si>
   <si>
+    <t xml:space="preserve">This is a very long note. It is longer than 256*2 characters to test what happens if a line is broken into 3 lines. Each line should only hold values up to 256 and then break line after a comma. When the line is so long that it is split into &gt;=3 lines, the second line starts with no keywords, but just list values. The last line will do the same but has to end with a semi-colon to show that the list of values has ended. With this final sentence, that had to be extended a bit, this line is now 534 characters which is long enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE_da</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE_da</t>
   </si>
   <si>
     <t xml:space="preserve">NOTE_kl</t>
@@ -799,7 +802,7 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="16.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="41.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="250.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1119,15 +1122,15 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1166,114 +1169,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1287,32 +1290,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -1321,10 +1324,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1367,150 +1370,150 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7"/>
     </row>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -419,6 +420,156 @@
   </si>
   <si>
     <t xml:space="preserve">Kalaallit Nunaata avataani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2181</t>
   </si>
 </sst>
 </file>
@@ -511,6 +662,19 @@
     <tableColumn id="5" name="da_code_label"/>
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D46" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D46"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="place of birth"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="3" name="gender"/>
+    <tableColumn id="4" name="figures_"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1524,4 +1688,671 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -472,7 +472,7 @@
     <tableColumn id="1" name="keyword"/>
     <tableColumn id="2" name="value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -496,7 +496,7 @@
     <tableColumn id="14" name="da_note"/>
     <tableColumn id="15" name="kl_note"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -512,7 +512,7 @@
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -419,6 +420,156 @@
   </si>
   <si>
     <t xml:space="preserve">Kalaallit Nunaata avataani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2181</t>
   </si>
 </sst>
 </file>
@@ -472,7 +623,7 @@
     <tableColumn id="1" name="keyword"/>
     <tableColumn id="2" name="value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -496,7 +647,7 @@
     <tableColumn id="14" name="da_note"/>
     <tableColumn id="15" name="kl_note"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -512,7 +663,20 @@
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D46" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D46"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="place of birth"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="3" name="gender"/>
+    <tableColumn id="4" name="figures_"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1524,4 +1688,671 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve">suiaassuseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -1324,10 +1321,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1373,22 +1370,22 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -1396,7 +1393,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1417,19 +1414,19 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1438,19 +1435,19 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1459,7 +1456,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1480,19 +1477,19 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
         <v>128</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>129</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1501,19 +1498,19 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
       </c>
       <c r="G7"/>
     </row>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -347,9 +346,6 @@
     <t xml:space="preserve">suiaassuseq</t>
   </si>
   <si>
-    <t xml:space="preserve">figures_</t>
-  </si>
-  <si>
     <t xml:space="preserve">figures</t>
   </si>
   <si>
@@ -420,156 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kalaallit Nunaata avataani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2181</t>
   </si>
 </sst>
 </file>
@@ -623,7 +469,7 @@
     <tableColumn id="1" name="keyword"/>
     <tableColumn id="2" name="value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -647,7 +493,7 @@
     <tableColumn id="14" name="da_note"/>
     <tableColumn id="15" name="kl_note"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -663,20 +509,7 @@
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D46" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D46"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="place of birth"/>
-    <tableColumn id="2" name="time"/>
-    <tableColumn id="3" name="gender"/>
-    <tableColumn id="4" name="figures_"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1488,10 +1321,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1537,22 +1370,22 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -1560,7 +1393,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1581,19 +1414,19 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1602,19 +1435,19 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1623,7 +1456,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1644,19 +1477,19 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
         <v>128</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>129</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1665,19 +1498,19 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
       </c>
       <c r="G7"/>
     </row>
@@ -1688,671 +1521,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <cols>
-    <col min="1" max="1" width="14.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="6.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t xml:space="preserve">suiaassuseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -1321,10 +1324,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1370,22 +1373,22 @@
         <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -1393,7 +1396,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1414,19 +1417,19 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1435,19 +1438,19 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1456,7 +1459,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1477,19 +1480,19 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1498,19 +1501,19 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7"/>
     </row>

--- a/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_bexsta_by_metamake.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">LANGUAGES</t>
   </si>
   <si>
-    <t xml:space="preserve">en","da","kl</t>
+    <t xml:space="preserve">en,da,kl</t>
   </si>
   <si>
     <t xml:space="preserve">CREATION-DATE</t>
